--- a/output_analysis/START_4_SEC_6.0_ENERGY_1.5_EV-FACTOR_16_EV_2_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_4_SEC_6.0_ENERGY_1.5_EV-FACTOR_16_EV_2_FLEX_300_TPS.txt.xlsx
@@ -434,435 +434,440 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1 11 42 48 84 113</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>12 51 69 96 261</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
       </c>
       <c r="D2" t="n">
+        <v>67</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15 31 54 114 147 156</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78</v>
+      </c>
+      <c r="E3" t="n">
+        <v>94</v>
+      </c>
+      <c r="F3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23 59 66 97 155</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>92</v>
+      </c>
+      <c r="E4" t="n">
         <v>98</v>
       </c>
-      <c r="E2" t="n">
-        <v>87</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>60 81 112 139 146</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81</v>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>49 63 73 138 169</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
+        <v>32</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>88 152 165</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>57</v>
+      </c>
+      <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160 182 217 233 264</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92</v>
+      </c>
+      <c r="E8" t="n">
+        <v>94</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>190 225 239</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" t="n">
         <v>98</v>
       </c>
-      <c r="G2" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>8 68 89 93 98 155</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1 10 27 41 43 52 253</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>94</v>
+      </c>
+      <c r="E10" t="n">
+        <v>96</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2 30 50 53 87</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>79</v>
+      </c>
+      <c r="E11" t="n">
+        <v>100</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11 19 45 92 115</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>92</v>
+      </c>
+      <c r="E12" t="n">
         <v>98</v>
       </c>
-      <c r="E3" t="n">
-        <v>91</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="F12" t="n">
+        <v>19</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>18 33 75 137 172</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>94</v>
+      </c>
+      <c r="E13" t="n">
         <v>98</v>
       </c>
-      <c r="G3" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>25 55 99 101 116 132 187</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="F13" t="n">
+        <v>32</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5 39 103 163 176 227</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>89</v>
+      </c>
+      <c r="E14" t="n">
+        <v>98</v>
+      </c>
+      <c r="F14" t="n">
+        <v>27</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>129 141 158 181 213</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>98</v>
+      </c>
+      <c r="F15" t="n">
+        <v>22</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>148 167 173 201</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>67</v>
+      </c>
+      <c r="E16" t="n">
+        <v>94</v>
+      </c>
+      <c r="F16" t="n">
+        <v>21</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>222 241 257 263 282</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>71</v>
+      </c>
+      <c r="E17" t="n">
         <v>100</v>
       </c>
-      <c r="E4" t="n">
-        <v>95</v>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>91 108 158 183 223</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>96</v>
-      </c>
-      <c r="E5" t="n">
-        <v>78</v>
-      </c>
-      <c r="F5" t="n">
-        <v>96</v>
-      </c>
-      <c r="G5" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6 17 24 53 62 66 109 115</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>98</v>
-      </c>
-      <c r="E6" t="n">
-        <v>86</v>
-      </c>
-      <c r="F6" t="n">
-        <v>98</v>
-      </c>
-      <c r="G6" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7 22 74 103 217</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>78</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>51 65 71 80 180</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>78</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>118 138 154 178 213</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>96</v>
-      </c>
-      <c r="E9" t="n">
-        <v>86</v>
-      </c>
-      <c r="F9" t="n">
-        <v>96</v>
-      </c>
-      <c r="G9" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3 16 26 34 49 106 288</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>98</v>
-      </c>
-      <c r="E10" t="n">
-        <v>95</v>
-      </c>
-      <c r="F10" t="n">
-        <v>98</v>
-      </c>
-      <c r="G10" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>44 54 67 216</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>88</v>
-      </c>
-      <c r="E11" t="n">
-        <v>59</v>
-      </c>
-      <c r="F11" t="n">
-        <v>88</v>
-      </c>
-      <c r="G11" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>63 104 148 281</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>100</v>
-      </c>
-      <c r="E12" t="n">
-        <v>79</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>112 142 186 224 247</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>96</v>
-      </c>
-      <c r="E13" t="n">
-        <v>86</v>
-      </c>
-      <c r="F13" t="n">
-        <v>96</v>
-      </c>
-      <c r="G13" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15 64 124 176 202 218</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>96</v>
-      </c>
-      <c r="E14" t="n">
-        <v>85</v>
-      </c>
-      <c r="F14" t="n">
-        <v>96</v>
-      </c>
-      <c r="G14" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>37 43 81 88 128 139</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>98</v>
-      </c>
-      <c r="E15" t="n">
-        <v>83</v>
-      </c>
-      <c r="F15" t="n">
-        <v>98</v>
-      </c>
-      <c r="G15" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>70 86 126 174 260</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>98</v>
-      </c>
-      <c r="E16" t="n">
-        <v>93</v>
-      </c>
-      <c r="F16" t="n">
-        <v>98</v>
-      </c>
-      <c r="G16" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>94 146 147 184 192</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>98</v>
-      </c>
-      <c r="E17" t="n">
-        <v>83</v>
-      </c>
       <c r="F17" t="n">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
